--- a/data/trans_dic/P1414-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1414-Clase-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.01034061212330182</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.01213419242377362</v>
+        <v>0.01213419242377361</v>
       </c>
     </row>
     <row r="5">
@@ -682,22 +682,22 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.009885207961931472</v>
+        <v>0.009854345525034532</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.006136064491792009</v>
+        <v>0.006045814054865182</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01296542374125155</v>
+        <v>0.01327804156745555</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.004098319622204495</v>
+        <v>0.004033851186113586</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.004167087438378802</v>
+        <v>0.004739099459679902</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.007131545756237823</v>
+        <v>0.007048440042253229</v>
       </c>
     </row>
     <row r="6">
@@ -709,28 +709,28 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.01990187750936585</v>
+        <v>0.02320944124671334</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.00878806936098145</v>
+        <v>0.01001725926412388</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05311418252105801</v>
+        <v>0.05202069006689372</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03339530893152161</v>
+        <v>0.03494344778756363</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04024541214199723</v>
+        <v>0.03975078359084343</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02426546146034269</v>
+        <v>0.02241184863095915</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02074934901917577</v>
+        <v>0.02110235922195396</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02019245806644969</v>
+        <v>0.01991162463819127</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.01072905991260456</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.01698385108572685</v>
+        <v>0.01698385108572686</v>
       </c>
     </row>
     <row r="8">
@@ -789,22 +789,22 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.002894822792206413</v>
+        <v>0.003091793910536676</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.005215076256117065</v>
+        <v>0.005574368948596496</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02190534041832219</v>
+        <v>0.02115167696805892</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.002557079385414549</v>
+        <v>0.002510297234509232</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.004289181361416187</v>
+        <v>0.004317877243181594</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01134157473291644</v>
+        <v>0.01105872011691314</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01264854966913576</v>
+        <v>0.01173537085748599</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01867943151011161</v>
+        <v>0.01776699452330011</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.007916624524400444</v>
+        <v>0.007228380500259549</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02919180049278531</v>
+        <v>0.02741718759035728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03622237777644303</v>
+        <v>0.03598287533949294</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05137104712280891</v>
+        <v>0.05090499049917829</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01478429257763395</v>
+        <v>0.01504601319856825</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02231949618131538</v>
+        <v>0.02138642854466752</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02534876584487596</v>
+        <v>0.02429929079144305</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.03783719992083742</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.06247718614713438</v>
+        <v>0.06247718614713439</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.01420395123837421</v>
@@ -892,28 +892,28 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001825940405707919</v>
+        <v>0.001793606324579229</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.006533531261300149</v>
+        <v>0.005786073836516868</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02298747692585061</v>
+        <v>0.02336124691868633</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01254687739273223</v>
+        <v>0.01255720520510674</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03891199315257905</v>
+        <v>0.03987354868196851</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.007949635308190406</v>
+        <v>0.008079389924543174</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.006160022401278044</v>
+        <v>0.006202786433939197</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01830821122639993</v>
+        <v>0.01863236180205325</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.008559184473401508</v>
+        <v>0.007678411016665435</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01589020016455518</v>
+        <v>0.01668895226854505</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03511585453745114</v>
+        <v>0.03348830117281743</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07460445160586929</v>
+        <v>0.07585334899962208</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.070669389992952</v>
+        <v>0.07817051512717048</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09359088419624736</v>
+        <v>0.09584730064678464</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02371988770314015</v>
+        <v>0.02383870142752102</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02506413839624217</v>
+        <v>0.02354435156000227</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04374868589074791</v>
+        <v>0.04257597870336534</v>
       </c>
     </row>
     <row r="13">
@@ -1001,28 +1001,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001820895105944463</v>
+        <v>0.001744784217173722</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0007545962491471017</v>
+        <v>0.0007587364671922769</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.005897745343802905</v>
+        <v>0.006568086588911482</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02344337074141723</v>
+        <v>0.0229395141900981</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02637976103574043</v>
+        <v>0.02642192192128232</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.003411451499970653</v>
+        <v>0.003192761475794452</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01128552398617789</v>
+        <v>0.01163457757804512</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01262032096841718</v>
+        <v>0.01239035709266799</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.006584679117649288</v>
+        <v>0.005873529768986</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0100981714880773</v>
+        <v>0.009253858609274968</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.006167764767454193</v>
+        <v>0.006347741628314532</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02514468181483729</v>
+        <v>0.02531997469368266</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04795658110889475</v>
+        <v>0.04960686896118013</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04430657789603362</v>
+        <v>0.04617051322849369</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01143672456362371</v>
+        <v>0.01157141375155474</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02361472987721629</v>
+        <v>0.02428826606390025</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02143295371073697</v>
+        <v>0.02126011265149921</v>
       </c>
     </row>
     <row r="16">
@@ -1087,7 +1087,7 @@
         <v>0.06616668993383387</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.05565264063059446</v>
+        <v>0.05565264063059445</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.02646482845543852</v>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0</v>
+        <v>0.001886974643178342</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
@@ -1116,22 +1116,22 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02720288490455342</v>
+        <v>0.02711759345191423</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05004544325868055</v>
+        <v>0.04893746388112668</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0437724448680116</v>
+        <v>0.04416507029479357</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01806942827269858</v>
+        <v>0.01855280435860783</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02735479869843232</v>
+        <v>0.02742650493514892</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02703628313794181</v>
+        <v>0.02688046287763382</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01629544921073595</v>
+        <v>0.01765456877376338</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.008902069630534155</v>
+        <v>0.008848989766872751</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0106900065280981</v>
+        <v>0.01059838544003817</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05767146192376712</v>
+        <v>0.05573024545007763</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08792486222028734</v>
+        <v>0.08743198184475812</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06898800218130186</v>
+        <v>0.06937224812854009</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03599306395115707</v>
+        <v>0.03732184438145836</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04804220138438511</v>
+        <v>0.04961227804227788</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04193172681138198</v>
+        <v>0.04252885276936057</v>
       </c>
     </row>
     <row r="19">
@@ -1196,7 +1196,7 @@
         <v>0.02797280297607772</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.04521373166699394</v>
+        <v>0.04521373166699393</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.01988627094043469</v>
@@ -1205,7 +1205,7 @@
         <v>0.0221062892216782</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.03627300954100431</v>
+        <v>0.0362730095410043</v>
       </c>
     </row>
     <row r="20">
@@ -1221,22 +1221,22 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01656155211932865</v>
+        <v>0.01659070111433456</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01850329713903092</v>
+        <v>0.01903565804358385</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03473641429906501</v>
+        <v>0.03454655014607909</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01330446640952918</v>
+        <v>0.01257627459104903</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0144175986771512</v>
+        <v>0.01530084413574731</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02787468701318961</v>
+        <v>0.02857965768403926</v>
       </c>
     </row>
     <row r="21">
@@ -1249,25 +1249,25 @@
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.02500585822368391</v>
+        <v>0.02368379770049973</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03548553956040584</v>
+        <v>0.03552256940198617</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03934063487053906</v>
+        <v>0.03911011444996185</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.05676835521035287</v>
+        <v>0.0570252388253969</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.02999494109048261</v>
+        <v>0.0290415351476689</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.03060490561876617</v>
+        <v>0.03274856682949455</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04517013826906734</v>
+        <v>0.04690064757286048</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0009258480780696582</v>
+        <v>0.0009045197318881265</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.002312594052609952</v>
+        <v>0.002099112715213683</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.002372795128039339</v>
+        <v>0.002549286429603337</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02092225489687522</v>
+        <v>0.02101293270363755</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.029120867708992</v>
+        <v>0.02982396450973604</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.03718084282497301</v>
+        <v>0.03700392105127492</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01142156080134704</v>
+        <v>0.01159577500978478</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01689321826768993</v>
+        <v>0.01681193880667467</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02066919054372057</v>
+        <v>0.0206691653103492</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.004315300711118217</v>
+        <v>0.004354862400877699</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.007117262342247921</v>
+        <v>0.006834863488913866</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.007076185425840711</v>
+        <v>0.007612208416420829</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03196953292894861</v>
+        <v>0.03159439520554899</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04197018076009302</v>
+        <v>0.04220716547204074</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.0477180447937983</v>
+        <v>0.04767610168407333</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01729988567615112</v>
+        <v>0.01724507790545713</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.02357163116526662</v>
+        <v>0.02401380393655037</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0267177290466481</v>
+        <v>0.02653310855013872</v>
       </c>
     </row>
     <row r="25">
@@ -1614,22 +1614,22 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3108</v>
+        <v>3099</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2130</v>
+        <v>2098</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6314</v>
+        <v>6467</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3081</v>
+        <v>3032</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3234</v>
+        <v>3678</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>7391</v>
+        <v>7305</v>
       </c>
     </row>
     <row r="7">
@@ -1641,28 +1641,28 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>8540</v>
+        <v>9959</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4828</v>
+        <v>5504</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>16702</v>
+        <v>16358</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>11590</v>
+        <v>12127</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>19600</v>
+        <v>19359</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>18239</v>
+        <v>16846</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>16105</v>
+        <v>16379</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>20928</v>
+        <v>20637</v>
       </c>
     </row>
     <row r="8">
@@ -1756,22 +1756,22 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>978</v>
+        <v>1045</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1941</v>
+        <v>2075</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>9226</v>
+        <v>8909</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1935</v>
+        <v>1900</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3215</v>
+        <v>3236</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>10251</v>
+        <v>9995</v>
       </c>
     </row>
     <row r="11">
@@ -1782,31 +1782,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5297</v>
+        <v>4915</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7046</v>
+        <v>6702</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3821</v>
+        <v>3489</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>9867</v>
+        <v>9267</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>13485</v>
+        <v>13395</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>21637</v>
+        <v>21440</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>11189</v>
+        <v>11387</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>16728</v>
+        <v>16029</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>22910</v>
+        <v>21962</v>
       </c>
     </row>
     <row r="12">
@@ -1894,28 +1894,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>953</v>
+        <v>936</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3076</v>
+        <v>2724</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5980</v>
+        <v>6077</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7296</v>
+        <v>7476</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7072</v>
+        <v>7187</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4238</v>
+        <v>4268</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>12051</v>
+        <v>12265</v>
       </c>
     </row>
     <row r="15">
@@ -1926,31 +1926,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5387</v>
+        <v>4833</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8293</v>
+        <v>8710</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16531</v>
+        <v>15764</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>19407</v>
+        <v>19732</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11740</v>
+        <v>12986</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>17548</v>
+        <v>17971</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>21100</v>
+        <v>21206</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>17245</v>
+        <v>16199</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>28797</v>
+        <v>28025</v>
       </c>
     </row>
     <row r="16">
@@ -2038,28 +2038,28 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2093</v>
+        <v>2006</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4510</v>
+        <v>5023</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>19361</v>
+        <v>18945</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>22608</v>
+        <v>22644</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6563</v>
+        <v>6142</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>22295</v>
+        <v>22984</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>25090</v>
+        <v>24633</v>
       </c>
     </row>
     <row r="19">
@@ -2070,31 +2070,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7632</v>
+        <v>6807</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11609</v>
+        <v>10639</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6976</v>
+        <v>7179</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>19229</v>
+        <v>19363</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>39606</v>
+        <v>40969</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>37972</v>
+        <v>39569</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>22001</v>
+        <v>22260</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>46651</v>
+        <v>47982</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>42610</v>
+        <v>42266</v>
       </c>
     </row>
     <row r="20">
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>0</v>
+        <v>963</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>20681</v>
+        <v>20616</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>36946</v>
+        <v>36128</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>36117</v>
+        <v>36441</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>22963</v>
+        <v>23578</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>37174</v>
+        <v>37271</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>37583</v>
+        <v>37367</v>
       </c>
     </row>
     <row r="23">
@@ -2214,31 +2214,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>8320</v>
+        <v>9014</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>5526</v>
+        <v>5493</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6040</v>
+        <v>5988</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>43844</v>
+        <v>42369</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>64910</v>
+        <v>64546</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>56922</v>
+        <v>57239</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>45742</v>
+        <v>47430</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>65287</v>
+        <v>67421</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>58289</v>
+        <v>59119</v>
       </c>
     </row>
     <row r="24">
@@ -2328,22 +2328,22 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>18357</v>
+        <v>18389</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>20021</v>
+        <v>20597</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>29167</v>
+        <v>29007</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>18297</v>
+        <v>17296</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>19740</v>
+        <v>20949</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>30018</v>
+        <v>30777</v>
       </c>
     </row>
     <row r="27">
@@ -2356,25 +2356,25 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>5932</v>
+        <v>5618</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>39332</v>
+        <v>39373</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>42568</v>
+        <v>42318</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>47666</v>
+        <v>47881</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>41251</v>
+        <v>39940</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>41903</v>
+        <v>44838</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>48643</v>
+        <v>50506</v>
       </c>
     </row>
     <row r="28">
@@ -2459,28 +2459,28 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>3168</v>
+        <v>3095</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>7830</v>
+        <v>7107</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>8153</v>
+        <v>8759</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>74189</v>
+        <v>74511</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>102843</v>
+        <v>105326</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>134501</v>
+        <v>133861</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>79584</v>
+        <v>80798</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>116856</v>
+        <v>116294</v>
       </c>
       <c r="K30" s="6" t="n">
         <v>145791</v>
@@ -2494,31 +2494,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>14767</v>
+        <v>14902</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>24097</v>
+        <v>23141</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>24314</v>
+        <v>26156</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>113362</v>
+        <v>112032</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>148222</v>
+        <v>149059</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>172619</v>
+        <v>172467</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>120543</v>
+        <v>120161</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>163052</v>
+        <v>166111</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>188454</v>
+        <v>187152</v>
       </c>
     </row>
     <row r="32">
